--- a/20170727Speech/rent591.xlsx
+++ b/20170727Speech/rent591.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t>address</t>
   </si>
@@ -46,6 +46,9 @@
     <t>layout_bathroom</t>
   </si>
   <si>
+    <t>忠孝東路三段217巷忠孝復..</t>
+  </si>
+  <si>
     <t>復興南路一段市民大..</t>
   </si>
   <si>
@@ -64,118 +67,112 @@
     <t>樂利路大安區六張犁捷運站..</t>
   </si>
   <si>
-    <t>忠孝東路三段217巷忠孝復..</t>
-  </si>
-  <si>
-    <t>和平東路二段近台北教育大..</t>
-  </si>
-  <si>
-    <t>金華街164巷**永康商圈**..</t>
-  </si>
-  <si>
-    <t>復興南路適合個人工作室</t>
-  </si>
-  <si>
-    <t>四維路22巷仁愛圓環邊間二..</t>
-  </si>
-  <si>
-    <t>信義路三段大安森林公園菁..</t>
-  </si>
-  <si>
-    <t>泰順街60巷靜巷內的新建小..</t>
-  </si>
-  <si>
-    <t>敦化南路一段187巷..</t>
-  </si>
-  <si>
-    <t>忠孝東路四段216巷近仁愛路學校銀行醫..</t>
-  </si>
-  <si>
-    <t>金華街172巷大安森..</t>
+    <t>和平東路二段283巷文湖線..</t>
+  </si>
+  <si>
+    <t>仁愛路四段300巷黃金地段，優雅..</t>
+  </si>
+  <si>
+    <t>和平東路三段家庭/..</t>
+  </si>
+  <si>
+    <t>仁愛路四段105巷誠品清華..</t>
+  </si>
+  <si>
+    <t>羅斯福路三段可短租◎頂樓..</t>
+  </si>
+  <si>
+    <t>潮州街屋齡新，近捷運，裝..</t>
+  </si>
+  <si>
+    <t>辛亥路二段171巷台..</t>
+  </si>
+  <si>
+    <t>建國南路一段生活機能便利..</t>
+  </si>
+  <si>
+    <t>瑞安街公園/捷運/大安站..</t>
+  </si>
+  <si>
+    <t>信義路四段30巷捷運大安站..</t>
+  </si>
+  <si>
+    <t>仁愛路三段143巷SOGO名巷..</t>
+  </si>
+  <si>
+    <t>和平東路一段古亭站..</t>
+  </si>
+  <si>
+    <t>仁愛路四段近捷運忠孝復興..</t>
   </si>
   <si>
     <t>羅斯福路二段捷運古亭站1..</t>
   </si>
   <si>
-    <t>羅斯福路三段正羅斯福路四..</t>
-  </si>
-  <si>
-    <t>安和路二段*爸爸節前特惠..</t>
-  </si>
-  <si>
-    <t>龍泉街93巷師大捷運豪宅出..</t>
-  </si>
-  <si>
-    <t>羅斯福路三段可租售！基泰..</t>
+    <t>大安路一段♬大安站2+1精..</t>
+  </si>
+  <si>
+    <t>瑞安街208巷大安森林公園..</t>
+  </si>
+  <si>
+    <t>基隆路三段台灣科大..</t>
+  </si>
+  <si>
+    <t>羅斯福路三段屋主自租~客..</t>
   </si>
   <si>
     <t>大安路一段頂級裝潢，大機..</t>
   </si>
   <si>
-    <t>羅斯福路三段283巷★近台..</t>
-  </si>
-  <si>
-    <t>潮州街屋齡新，近捷運，裝..</t>
-  </si>
-  <si>
-    <t>忠孝東路三段248巷忠孝So..</t>
-  </si>
-  <si>
-    <t>和平東路二段18巷優質學區..</t>
-  </si>
-  <si>
-    <t>四維路科技大樓捷運..</t>
-  </si>
-  <si>
-    <t>羅斯福路二段81巷陽光邊間..</t>
-  </si>
-  <si>
-    <t>信義路四段265巷信義安和..</t>
-  </si>
-  <si>
-    <t>仁愛路四段近捷運忠孝復興..</t>
+    <t>和平東路二段76巷科技大樓..</t>
+  </si>
+  <si>
+    <t>忠孝東路四段170巷摩登時..</t>
+  </si>
+  <si>
+    <t>光武里107巷忠孝復興捷運..</t>
+  </si>
+  <si>
+    <t>信義路四段265巷仁愛文教..</t>
+  </si>
+  <si>
+    <t>3房2廳2衛</t>
   </si>
   <si>
     <t>2房1廳1衛</t>
   </si>
   <si>
-    <t>3房2廳2衛</t>
+    <t>1房2廳1衛</t>
   </si>
   <si>
     <t>1房1廳1衛</t>
   </si>
   <si>
-    <t>5房4廳4衛</t>
+    <t>3房2廳1衛</t>
   </si>
   <si>
     <t>2房2廳2衛</t>
   </si>
   <si>
+    <t>4房2廳2衛</t>
+  </si>
+  <si>
     <t>2房2廳1衛</t>
   </si>
   <si>
-    <t>4房2廳2衛</t>
-  </si>
-  <si>
     <t>3房2廳3衛</t>
   </si>
   <si>
     <t>2房1廳2衛</t>
   </si>
   <si>
-    <t>1房2廳1衛</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>4</t>
@@ -582,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -591,22 +588,22 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>32002</v>
+        <v>40000</v>
       </c>
       <c r="H2">
-        <v>308</v>
+        <v>780</v>
       </c>
       <c r="I2" t="s">
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,25 +614,25 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>29036</v>
+        <v>32002</v>
       </c>
       <c r="H3">
-        <v>569</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
@@ -652,25 +649,25 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>26006</v>
+        <v>29036</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>602</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
         <v>52</v>
@@ -687,25 +684,25 @@
         <v>13</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>34000</v>
+        <v>26006</v>
       </c>
       <c r="H5">
-        <v>5915</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
@@ -722,25 +719,25 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>23909</v>
+        <v>34000</v>
       </c>
       <c r="H6">
-        <v>9633</v>
+        <v>5932</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
@@ -757,31 +754,31 @@
         <v>15</v>
       </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>4</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>43800</v>
+        <v>23909</v>
       </c>
       <c r="H7">
-        <v>3858</v>
+        <v>9649</v>
       </c>
       <c r="I7" t="s">
         <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -792,31 +789,31 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>40000</v>
+        <v>43800</v>
       </c>
       <c r="H8">
-        <v>753</v>
+        <v>3875</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,7 +824,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -836,19 +833,19 @@
         <v>42</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>25000</v>
+        <v>29500</v>
       </c>
       <c r="H9">
-        <v>1337</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
         <v>52</v>
@@ -862,31 +859,31 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>179.6</v>
+        <v>42.4</v>
       </c>
       <c r="G10">
-        <v>190000</v>
+        <v>45000</v>
       </c>
       <c r="H10">
+        <v>693</v>
+      </c>
+      <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,31 +894,31 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="H11">
-        <v>591</v>
+        <v>1259</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,31 +929,31 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>37.7</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>48000</v>
+        <v>68500</v>
       </c>
       <c r="H12">
-        <v>294</v>
+        <v>798</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -967,31 +964,31 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>11.8</v>
+        <v>103</v>
       </c>
       <c r="G13">
-        <v>21500</v>
+        <v>200000</v>
       </c>
       <c r="H13">
-        <v>717</v>
+        <v>636</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,22 +999,22 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G14">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="H14">
-        <v>555</v>
+        <v>1091</v>
       </c>
       <c r="I14" t="s">
         <v>52</v>
@@ -1037,28 +1034,28 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G15">
-        <v>28000</v>
+        <v>29500</v>
       </c>
       <c r="H15">
-        <v>994</v>
+        <v>2876</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
         <v>52</v>
@@ -1072,31 +1069,31 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16">
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="G16">
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="H16">
-        <v>489</v>
+        <v>210</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1107,31 +1104,31 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>48800</v>
+        <v>49000</v>
       </c>
       <c r="H17">
-        <v>1121</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1142,31 +1139,31 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="H18">
-        <v>760</v>
+        <v>279</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1177,31 +1174,31 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>43.3</v>
       </c>
       <c r="G19">
-        <v>55000</v>
+        <v>68000</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1212,31 +1209,31 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>12.8</v>
       </c>
       <c r="G20">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="H20">
-        <v>2633</v>
+        <v>193</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1247,31 +1244,31 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>45</v>
+        <v>21.4</v>
       </c>
       <c r="G21">
-        <v>48000</v>
+        <v>28990</v>
       </c>
       <c r="H21">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1282,31 +1279,31 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F22">
-        <v>105.2</v>
+        <v>26</v>
       </c>
       <c r="G22">
-        <v>115000</v>
+        <v>35000</v>
       </c>
       <c r="H22">
-        <v>553</v>
+        <v>761</v>
       </c>
       <c r="I22" t="s">
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1317,31 +1314,31 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>25.6</v>
+        <v>31.1</v>
       </c>
       <c r="G23">
-        <v>65000</v>
+        <v>48000</v>
       </c>
       <c r="H23">
-        <v>364</v>
+        <v>254</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1352,31 +1349,31 @@
         <v>32</v>
       </c>
       <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>38.4</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>46500</v>
+        <v>110000</v>
       </c>
       <c r="H24">
-        <v>389</v>
+        <v>771</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1387,25 +1384,25 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>9.699999999999999</v>
+        <v>21</v>
       </c>
       <c r="G25">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="H25">
-        <v>1060</v>
+        <v>3755</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s">
         <v>52</v>
@@ -1422,31 +1419,31 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26">
-        <v>26.1</v>
+        <v>105.2</v>
       </c>
       <c r="G26">
-        <v>55000</v>
+        <v>115000</v>
       </c>
       <c r="H26">
-        <v>523</v>
+        <v>1652</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" t="s">
         <v>50</v>
-      </c>
-      <c r="K26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,31 +1454,31 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F27">
-        <v>32.6</v>
+        <v>25.6</v>
       </c>
       <c r="G27">
-        <v>49800</v>
+        <v>65000</v>
       </c>
       <c r="H27">
-        <v>1408</v>
+        <v>367</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1492,31 +1489,31 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G28">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="H28">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1527,28 +1524,28 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29">
-        <v>10.2</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>36000</v>
+        <v>33500</v>
       </c>
       <c r="H29">
-        <v>1315</v>
+        <v>644</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s">
         <v>52</v>
@@ -1568,25 +1565,25 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>37.4</v>
+        <v>35</v>
       </c>
       <c r="G30">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="H30">
-        <v>2120</v>
+        <v>330</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1597,31 +1594,31 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>21.4</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>28990</v>
+        <v>35000</v>
       </c>
       <c r="H31">
-        <v>187</v>
+        <v>1270</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
